--- a/TargetONlineReviews-Scrapdata/DPCI Helping File With Tab Information.xlsx
+++ b/TargetONlineReviews-Scrapdata/DPCI Helping File With Tab Information.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Target Online Reviews phase#2\Inputfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Sohail Files\Python-Works\TargetONlineReviews-Scrapdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6591" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6604" uniqueCount="1348">
   <si>
     <t>Department</t>
   </si>
@@ -4067,6 +4067,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 040-12-0187 GF &amp; Co. not found in Department Detail or Mismatch Brand and Short Dept Name.</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -8687,10 +8693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S426"/>
+  <dimension ref="A1:T426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M392" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S410" sqref="S410"/>
+    <sheetView tabSelected="1" topLeftCell="N4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8716,7 +8722,7 @@
     <col min="19" max="19" width="9.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>55</v>
       </c>
@@ -8774,8 +8780,11 @@
       <c r="S1" s="12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T1" s="5" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44">
         <v>1</v>
       </c>
@@ -8823,8 +8832,11 @@
         <v>1340</v>
       </c>
       <c r="S2" s="46"/>
-    </row>
-    <row r="3" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T2" s="49" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44">
         <v>2</v>
       </c>
@@ -8872,8 +8884,11 @@
         <v>1340</v>
       </c>
       <c r="S3" s="46"/>
-    </row>
-    <row r="4" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="49" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44">
         <v>3</v>
       </c>
@@ -8917,8 +8932,11 @@
         <v>1340</v>
       </c>
       <c r="S4" s="46"/>
-    </row>
-    <row r="5" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="49" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44">
         <v>4</v>
       </c>
@@ -8962,8 +8980,11 @@
         <v>1340</v>
       </c>
       <c r="S5" s="46"/>
-    </row>
-    <row r="6" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T5" s="49" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44">
         <v>5</v>
       </c>
@@ -9007,8 +9028,11 @@
         <v>1340</v>
       </c>
       <c r="S6" s="46"/>
-    </row>
-    <row r="7" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="49" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44">
         <v>6</v>
       </c>
@@ -9052,8 +9076,11 @@
         <v>1340</v>
       </c>
       <c r="S7" s="46"/>
-    </row>
-    <row r="8" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="49" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44">
         <v>7</v>
       </c>
@@ -9097,8 +9124,11 @@
         <v>1340</v>
       </c>
       <c r="S8" s="46"/>
-    </row>
-    <row r="9" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T8" s="49" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44">
         <v>8</v>
       </c>
@@ -9140,8 +9170,11 @@
         <v>1340</v>
       </c>
       <c r="S9" s="46"/>
-    </row>
-    <row r="10" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="49" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44">
         <v>9</v>
       </c>
@@ -9187,8 +9220,11 @@
         <v>1340</v>
       </c>
       <c r="S10" s="46"/>
-    </row>
-    <row r="11" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T10" s="49" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44">
         <v>10</v>
       </c>
@@ -9232,8 +9268,11 @@
         <v>1340</v>
       </c>
       <c r="S11" s="46"/>
-    </row>
-    <row r="12" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="49" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44">
         <v>11</v>
       </c>
@@ -9277,8 +9316,11 @@
         <v>1340</v>
       </c>
       <c r="S12" s="46"/>
-    </row>
-    <row r="13" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="49" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="16" t="s">
         <v>643</v>
@@ -9314,8 +9356,11 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="40"/>
-    </row>
-    <row r="14" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T13" s="49" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44">
         <v>12</v>
       </c>
@@ -9362,7 +9407,7 @@
       </c>
       <c r="S14" s="46"/>
     </row>
-    <row r="15" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>147</v>
       </c>
@@ -9408,8 +9453,9 @@
       <c r="S15" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T15" s="49"/>
+    </row>
+    <row r="16" spans="1:20" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>150</v>
       </c>
@@ -9453,8 +9499,9 @@
       <c r="S16" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T16" s="49"/>
+    </row>
+    <row r="17" spans="1:20" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>139</v>
       </c>
@@ -9496,8 +9543,9 @@
       <c r="S17" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T17" s="49"/>
+    </row>
+    <row r="18" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="16" t="s">
         <v>648</v>
@@ -9533,8 +9581,9 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="40"/>
-    </row>
-    <row r="19" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T18" s="49"/>
+    </row>
+    <row r="19" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="82" t="s">
         <v>648</v>
@@ -9570,8 +9619,9 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="40"/>
-    </row>
-    <row r="20" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="49"/>
+    </row>
+    <row r="20" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44">
         <v>13</v>
       </c>
@@ -9616,7 +9666,7 @@
       </c>
       <c r="S20" s="46"/>
     </row>
-    <row r="21" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="16" t="s">
         <v>654</v>
@@ -9652,8 +9702,9 @@
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
       <c r="S21" s="40"/>
-    </row>
-    <row r="22" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T21" s="49"/>
+    </row>
+    <row r="22" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>138</v>
       </c>
@@ -9697,8 +9748,9 @@
       <c r="S22" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T22" s="49"/>
+    </row>
+    <row r="23" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="16" t="s">
         <v>655</v>
@@ -9734,8 +9786,9 @@
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
       <c r="S23" s="40"/>
-    </row>
-    <row r="24" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T23" s="49"/>
+    </row>
+    <row r="24" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="16" t="s">
         <v>656</v>
@@ -9771,8 +9824,9 @@
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
       <c r="S24" s="40"/>
-    </row>
-    <row r="25" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T24" s="49"/>
+    </row>
+    <row r="25" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="16" t="s">
         <v>1339</v>
@@ -9808,8 +9862,9 @@
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
       <c r="S25" s="40"/>
-    </row>
-    <row r="26" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T25" s="49"/>
+    </row>
+    <row r="26" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="16" t="s">
         <v>658</v>
@@ -9845,8 +9900,9 @@
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
       <c r="S26" s="40"/>
-    </row>
-    <row r="27" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T26" s="49"/>
+    </row>
+    <row r="27" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>137</v>
       </c>
@@ -9892,8 +9948,9 @@
       <c r="S27" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T27" s="49"/>
+    </row>
+    <row r="28" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="16" t="s">
         <v>1271</v>
@@ -9929,8 +9986,9 @@
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
       <c r="S28" s="40"/>
-    </row>
-    <row r="29" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T28" s="49"/>
+    </row>
+    <row r="29" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>148</v>
       </c>
@@ -9976,8 +10034,9 @@
       <c r="S29" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T29" s="49"/>
+    </row>
+    <row r="30" spans="1:20" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="16" t="s">
         <v>1325</v>
@@ -10015,8 +10074,9 @@
       <c r="Q30" s="18"/>
       <c r="R30" s="18"/>
       <c r="S30" s="40"/>
-    </row>
-    <row r="31" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T30" s="49"/>
+    </row>
+    <row r="31" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="16" t="s">
         <v>659</v>
@@ -10052,8 +10112,9 @@
       <c r="Q31" s="18"/>
       <c r="R31" s="18"/>
       <c r="S31" s="40"/>
-    </row>
-    <row r="32" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T31" s="49"/>
+    </row>
+    <row r="32" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="16" t="s">
         <v>660</v>
@@ -10089,8 +10150,9 @@
       <c r="Q32" s="18"/>
       <c r="R32" s="18"/>
       <c r="S32" s="40"/>
-    </row>
-    <row r="33" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T32" s="49"/>
+    </row>
+    <row r="33" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="16" t="s">
         <v>661</v>
@@ -10126,8 +10188,9 @@
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
       <c r="S33" s="40"/>
-    </row>
-    <row r="34" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T33" s="49"/>
+    </row>
+    <row r="34" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="16" t="s">
         <v>662</v>
@@ -10163,8 +10226,9 @@
       <c r="Q34" s="18"/>
       <c r="R34" s="18"/>
       <c r="S34" s="40"/>
-    </row>
-    <row r="35" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T34" s="49"/>
+    </row>
+    <row r="35" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="16" t="s">
         <v>663</v>
@@ -10200,8 +10264,9 @@
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
       <c r="S35" s="40"/>
-    </row>
-    <row r="36" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T35" s="49"/>
+    </row>
+    <row r="36" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="16" t="s">
         <v>664</v>
@@ -10237,8 +10302,9 @@
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
       <c r="S36" s="40"/>
-    </row>
-    <row r="37" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T36" s="49"/>
+    </row>
+    <row r="37" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="16" t="s">
         <v>665</v>
@@ -10274,8 +10340,9 @@
       <c r="Q37" s="18"/>
       <c r="R37" s="18"/>
       <c r="S37" s="40"/>
-    </row>
-    <row r="38" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T37" s="49"/>
+    </row>
+    <row r="38" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="16" t="s">
         <v>667</v>
@@ -10311,8 +10378,9 @@
       <c r="Q38" s="18"/>
       <c r="R38" s="18"/>
       <c r="S38" s="40"/>
-    </row>
-    <row r="39" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T38" s="49"/>
+    </row>
+    <row r="39" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="16" t="s">
         <v>666</v>
@@ -10348,8 +10416,9 @@
       <c r="Q39" s="18"/>
       <c r="R39" s="18"/>
       <c r="S39" s="40"/>
-    </row>
-    <row r="40" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T39" s="49"/>
+    </row>
+    <row r="40" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>144</v>
       </c>
@@ -10397,8 +10466,9 @@
       <c r="S40" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T40" s="49"/>
+    </row>
+    <row r="41" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>149</v>
       </c>
@@ -10442,8 +10512,9 @@
       <c r="S41" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T41" s="49"/>
+    </row>
+    <row r="42" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>146</v>
       </c>
@@ -10487,8 +10558,9 @@
       <c r="S42" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T42" s="49"/>
+    </row>
+    <row r="43" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>142</v>
       </c>
@@ -10534,8 +10606,9 @@
       <c r="S43" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T43" s="49"/>
+    </row>
+    <row r="44" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>145</v>
       </c>
@@ -10581,8 +10654,9 @@
       <c r="S44" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T44" s="49"/>
+    </row>
+    <row r="45" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>136</v>
       </c>
@@ -10628,8 +10702,9 @@
       <c r="S45" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T45" s="49"/>
+    </row>
+    <row r="46" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44">
         <v>14</v>
       </c>
@@ -10673,8 +10748,9 @@
         <v>1340</v>
       </c>
       <c r="S46" s="46"/>
-    </row>
-    <row r="47" spans="1:19" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T46" s="49"/>
+    </row>
+    <row r="47" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44">
         <v>15</v>
       </c>
@@ -10718,8 +10794,9 @@
         <v>1340</v>
       </c>
       <c r="S47" s="46"/>
-    </row>
-    <row r="48" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T47" s="49"/>
+    </row>
+    <row r="48" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="44">
         <v>16</v>
       </c>
@@ -10764,7 +10841,7 @@
       </c>
       <c r="S48" s="46"/>
     </row>
-    <row r="49" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="44">
         <v>17</v>
       </c>
@@ -10809,7 +10886,7 @@
       </c>
       <c r="S49" s="46"/>
     </row>
-    <row r="50" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44">
         <v>18</v>
       </c>
@@ -10854,7 +10931,7 @@
       </c>
       <c r="S50" s="46"/>
     </row>
-    <row r="51" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="44">
         <v>19</v>
       </c>
@@ -10899,7 +10976,7 @@
       </c>
       <c r="S51" s="46"/>
     </row>
-    <row r="52" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="44">
         <v>20</v>
       </c>
@@ -10946,7 +11023,7 @@
       </c>
       <c r="S52" s="46"/>
     </row>
-    <row r="53" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="44">
         <v>21</v>
       </c>
@@ -10989,7 +11066,7 @@
       </c>
       <c r="S53" s="46"/>
     </row>
-    <row r="54" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="16" t="s">
         <v>786</v>
@@ -11025,8 +11102,9 @@
       <c r="Q54" s="18"/>
       <c r="R54" s="18"/>
       <c r="S54" s="40"/>
-    </row>
-    <row r="55" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T54" s="49"/>
+    </row>
+    <row r="55" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="16" t="s">
         <v>787</v>
@@ -11062,8 +11140,9 @@
       <c r="Q55" s="18"/>
       <c r="R55" s="18"/>
       <c r="S55" s="40"/>
-    </row>
-    <row r="56" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T55" s="49"/>
+    </row>
+    <row r="56" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="44">
         <v>22</v>
       </c>
@@ -11110,7 +11189,7 @@
       </c>
       <c r="S56" s="46"/>
     </row>
-    <row r="57" spans="1:19" s="49" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" s="49" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="44">
         <v>23</v>
       </c>
@@ -11155,7 +11234,7 @@
       </c>
       <c r="S57" s="46"/>
     </row>
-    <row r="58" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="44">
         <v>24</v>
       </c>
@@ -11200,7 +11279,7 @@
       </c>
       <c r="S58" s="46"/>
     </row>
-    <row r="59" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
       <c r="B59" s="16" t="s">
         <v>789</v>
@@ -11236,8 +11315,9 @@
       <c r="Q59" s="21"/>
       <c r="R59" s="21"/>
       <c r="S59" s="21"/>
-    </row>
-    <row r="60" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T59" s="49"/>
+    </row>
+    <row r="60" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="16" t="s">
         <v>790</v>
@@ -11273,8 +11353,9 @@
       <c r="Q60" s="21"/>
       <c r="R60" s="21"/>
       <c r="S60" s="21"/>
-    </row>
-    <row r="61" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T60" s="49"/>
+    </row>
+    <row r="61" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="16" t="s">
         <v>681</v>
@@ -11310,8 +11391,9 @@
       <c r="Q61" s="21"/>
       <c r="R61" s="21"/>
       <c r="S61" s="21"/>
-    </row>
-    <row r="62" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T61" s="49"/>
+    </row>
+    <row r="62" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="16" t="s">
         <v>791</v>
@@ -11347,8 +11429,9 @@
       <c r="Q62" s="21"/>
       <c r="R62" s="21"/>
       <c r="S62" s="21"/>
-    </row>
-    <row r="63" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T62" s="49"/>
+    </row>
+    <row r="63" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="44">
         <v>25</v>
       </c>
@@ -11393,7 +11476,7 @@
       </c>
       <c r="S63" s="47"/>
     </row>
-    <row r="64" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="44">
         <v>26</v>
       </c>
@@ -11436,7 +11519,7 @@
       </c>
       <c r="S64" s="47"/>
     </row>
-    <row r="65" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="44">
         <v>27</v>
       </c>
@@ -11481,7 +11564,7 @@
       </c>
       <c r="S65" s="47"/>
     </row>
-    <row r="66" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="44">
         <v>28</v>
       </c>
@@ -11526,7 +11609,7 @@
       </c>
       <c r="S66" s="47"/>
     </row>
-    <row r="67" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="44">
         <v>29</v>
       </c>
@@ -11571,7 +11654,7 @@
       </c>
       <c r="S67" s="47"/>
     </row>
-    <row r="68" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="44">
         <v>30</v>
       </c>
@@ -11616,7 +11699,7 @@
       </c>
       <c r="S68" s="47"/>
     </row>
-    <row r="69" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="44">
         <v>31</v>
       </c>
@@ -11659,7 +11742,7 @@
       </c>
       <c r="S69" s="47"/>
     </row>
-    <row r="70" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="16" t="s">
         <v>687</v>
@@ -11695,8 +11778,9 @@
       <c r="Q70" s="18"/>
       <c r="R70" s="18"/>
       <c r="S70" s="40"/>
-    </row>
-    <row r="71" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T70" s="49"/>
+    </row>
+    <row r="71" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="44">
         <v>32</v>
       </c>
@@ -11739,7 +11823,7 @@
       </c>
       <c r="S71" s="47"/>
     </row>
-    <row r="72" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="44">
         <v>33</v>
       </c>
@@ -11784,7 +11868,7 @@
       </c>
       <c r="S72" s="47"/>
     </row>
-    <row r="73" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="44">
         <v>34</v>
       </c>
@@ -11827,7 +11911,7 @@
       </c>
       <c r="S73" s="47"/>
     </row>
-    <row r="74" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="44">
         <v>35</v>
       </c>
@@ -11872,7 +11956,7 @@
       </c>
       <c r="S74" s="47"/>
     </row>
-    <row r="75" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="44">
         <v>36</v>
       </c>
@@ -11917,7 +12001,7 @@
       </c>
       <c r="S75" s="47"/>
     </row>
-    <row r="76" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44">
         <v>37</v>
       </c>
@@ -11962,7 +12046,7 @@
       </c>
       <c r="S76" s="47"/>
     </row>
-    <row r="77" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="44">
         <v>38</v>
       </c>
@@ -12007,7 +12091,7 @@
       </c>
       <c r="S77" s="47"/>
     </row>
-    <row r="78" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="44">
         <v>39</v>
       </c>
@@ -12052,7 +12136,7 @@
       </c>
       <c r="S78" s="47"/>
     </row>
-    <row r="79" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="44">
         <v>40</v>
       </c>
@@ -12097,7 +12181,7 @@
       </c>
       <c r="S79" s="47"/>
     </row>
-    <row r="80" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="44">
         <v>41</v>
       </c>
@@ -12142,7 +12226,7 @@
       </c>
       <c r="S80" s="47"/>
     </row>
-    <row r="81" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="44">
         <v>42</v>
       </c>
@@ -12187,7 +12271,7 @@
       </c>
       <c r="S81" s="47"/>
     </row>
-    <row r="82" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="16" t="s">
         <v>797</v>
@@ -12223,8 +12307,9 @@
       <c r="Q82" s="21"/>
       <c r="R82" s="21"/>
       <c r="S82" s="21"/>
-    </row>
-    <row r="83" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T82" s="49"/>
+    </row>
+    <row r="83" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
       <c r="B83" s="16" t="s">
         <v>798</v>
@@ -12260,8 +12345,9 @@
       <c r="Q83" s="21"/>
       <c r="R83" s="21"/>
       <c r="S83" s="21"/>
-    </row>
-    <row r="84" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T83" s="49"/>
+    </row>
+    <row r="84" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="44">
         <v>43</v>
       </c>
@@ -12306,7 +12392,7 @@
       </c>
       <c r="S84" s="47"/>
     </row>
-    <row r="85" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="44">
         <v>44</v>
       </c>
@@ -12351,7 +12437,7 @@
       </c>
       <c r="S85" s="47"/>
     </row>
-    <row r="86" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="44">
         <v>45</v>
       </c>
@@ -12396,7 +12482,7 @@
       </c>
       <c r="S86" s="47"/>
     </row>
-    <row r="87" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="44">
         <v>46</v>
       </c>
@@ -12437,7 +12523,7 @@
       </c>
       <c r="S87" s="47"/>
     </row>
-    <row r="88" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21">
         <v>143</v>
       </c>
@@ -12483,8 +12569,9 @@
       <c r="S88" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T88" s="49"/>
+    </row>
+    <row r="89" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="18"/>
       <c r="B89" s="16" t="s">
         <v>698</v>
@@ -12520,8 +12607,9 @@
       <c r="Q89" s="18"/>
       <c r="R89" s="18"/>
       <c r="S89" s="40"/>
-    </row>
-    <row r="90" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T89" s="49"/>
+    </row>
+    <row r="90" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="21">
         <v>141</v>
       </c>
@@ -12567,8 +12655,9 @@
       <c r="S90" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T90" s="49"/>
+    </row>
+    <row r="91" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="18"/>
       <c r="B91" s="16" t="s">
         <v>699</v>
@@ -12604,8 +12693,9 @@
       <c r="Q91" s="18"/>
       <c r="R91" s="18"/>
       <c r="S91" s="40"/>
-    </row>
-    <row r="92" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T91" s="49"/>
+    </row>
+    <row r="92" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21">
         <v>151</v>
       </c>
@@ -12649,8 +12739,9 @@
       <c r="S92" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T92" s="49"/>
+    </row>
+    <row r="93" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="44">
         <v>47</v>
       </c>
@@ -12693,7 +12784,7 @@
       </c>
       <c r="S93" s="47"/>
     </row>
-    <row r="94" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="44">
         <v>48</v>
       </c>
@@ -12736,7 +12827,7 @@
       </c>
       <c r="S94" s="47"/>
     </row>
-    <row r="95" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="44">
         <v>49</v>
       </c>
@@ -12779,7 +12870,7 @@
       </c>
       <c r="S95" s="47"/>
     </row>
-    <row r="96" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="44">
         <v>50</v>
       </c>
@@ -12828,7 +12919,7 @@
       </c>
       <c r="S96" s="47"/>
     </row>
-    <row r="97" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="44">
         <v>51</v>
       </c>
@@ -12873,7 +12964,7 @@
       </c>
       <c r="S97" s="47"/>
     </row>
-    <row r="98" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="18"/>
       <c r="B98" s="16" t="s">
         <v>716</v>
@@ -12908,8 +12999,9 @@
       <c r="Q98" s="18"/>
       <c r="R98" s="18"/>
       <c r="S98" s="40"/>
-    </row>
-    <row r="99" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T98" s="49"/>
+    </row>
+    <row r="99" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21"/>
       <c r="B99" s="16" t="s">
         <v>1275</v>
@@ -12945,8 +13037,9 @@
       <c r="Q99" s="21"/>
       <c r="R99" s="21"/>
       <c r="S99" s="21"/>
-    </row>
-    <row r="100" spans="1:19" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T99" s="49"/>
+    </row>
+    <row r="100" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="44">
         <v>52</v>
       </c>
@@ -12990,8 +13083,9 @@
         <v>1340</v>
       </c>
       <c r="S100" s="74"/>
-    </row>
-    <row r="101" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T100" s="49"/>
+    </row>
+    <row r="101" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="44">
         <v>53</v>
       </c>
@@ -13036,7 +13130,7 @@
       </c>
       <c r="S101" s="47"/>
     </row>
-    <row r="102" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21"/>
       <c r="B102" s="16" t="s">
         <v>1276</v>
@@ -13072,8 +13166,9 @@
       <c r="Q102" s="21"/>
       <c r="R102" s="21"/>
       <c r="S102" s="21"/>
-    </row>
-    <row r="103" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T102" s="49"/>
+    </row>
+    <row r="103" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
       <c r="B103" s="16" t="s">
         <v>1277</v>
@@ -13109,8 +13204,9 @@
       <c r="Q103" s="21"/>
       <c r="R103" s="21"/>
       <c r="S103" s="21"/>
-    </row>
-    <row r="104" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T103" s="49"/>
+    </row>
+    <row r="104" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="87">
         <v>54</v>
       </c>
@@ -13153,7 +13249,7 @@
       </c>
       <c r="S104" s="47"/>
     </row>
-    <row r="105" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="87">
         <v>55</v>
       </c>
@@ -13196,7 +13292,7 @@
       </c>
       <c r="S105" s="47"/>
     </row>
-    <row r="106" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="87">
         <v>56</v>
       </c>
@@ -13241,7 +13337,7 @@
       </c>
       <c r="S106" s="47"/>
     </row>
-    <row r="107" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="87">
         <v>57</v>
       </c>
@@ -13284,7 +13380,7 @@
       </c>
       <c r="S107" s="47"/>
     </row>
-    <row r="108" spans="1:19" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="87">
         <v>58</v>
       </c>
@@ -13328,8 +13424,9 @@
         <v>1340</v>
       </c>
       <c r="S108" s="74"/>
-    </row>
-    <row r="109" spans="1:19" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T108" s="49"/>
+    </row>
+    <row r="109" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="87">
         <v>59</v>
       </c>
@@ -13373,8 +13470,9 @@
         <v>1340</v>
       </c>
       <c r="S109" s="74"/>
-    </row>
-    <row r="110" spans="1:19" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T109" s="49"/>
+    </row>
+    <row r="110" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="87">
         <v>60</v>
       </c>
@@ -13418,8 +13516,9 @@
         <v>1340</v>
       </c>
       <c r="S110" s="74"/>
-    </row>
-    <row r="111" spans="1:19" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T110" s="49"/>
+    </row>
+    <row r="111" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="87">
         <v>61</v>
       </c>
@@ -13463,8 +13562,9 @@
         <v>1340</v>
       </c>
       <c r="S111" s="74"/>
-    </row>
-    <row r="112" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T111" s="49"/>
+    </row>
+    <row r="112" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="87">
         <v>62</v>
       </c>
@@ -13509,7 +13609,7 @@
       </c>
       <c r="S112" s="47"/>
     </row>
-    <row r="113" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="87">
         <v>63</v>
       </c>
@@ -13554,7 +13654,7 @@
       </c>
       <c r="S113" s="47"/>
     </row>
-    <row r="114" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="87">
         <v>64</v>
       </c>
@@ -13599,7 +13699,7 @@
       </c>
       <c r="S114" s="46"/>
     </row>
-    <row r="115" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="87">
         <v>65</v>
       </c>
@@ -13644,7 +13744,7 @@
       </c>
       <c r="S115" s="46"/>
     </row>
-    <row r="116" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="18">
         <v>140</v>
       </c>
@@ -13690,8 +13790,9 @@
       <c r="S116" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T116" s="49"/>
+    </row>
+    <row r="117" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
       <c r="B117" s="16" t="s">
         <v>1278</v>
@@ -13727,8 +13828,9 @@
       <c r="Q117" s="18"/>
       <c r="R117" s="18"/>
       <c r="S117" s="40"/>
-    </row>
-    <row r="118" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T117" s="49"/>
+    </row>
+    <row r="118" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="18"/>
       <c r="B118" s="16" t="s">
         <v>1279</v>
@@ -13764,8 +13866,9 @@
       <c r="Q118" s="18"/>
       <c r="R118" s="18"/>
       <c r="S118" s="40"/>
-    </row>
-    <row r="119" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T118" s="49"/>
+    </row>
+    <row r="119" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18"/>
       <c r="B119" s="16" t="s">
         <v>1280</v>
@@ -13801,8 +13904,9 @@
       <c r="Q119" s="18"/>
       <c r="R119" s="18"/>
       <c r="S119" s="40"/>
-    </row>
-    <row r="120" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T119" s="49"/>
+    </row>
+    <row r="120" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="18">
         <v>50</v>
       </c>
@@ -13846,8 +13950,9 @@
       <c r="S120" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T120" s="49"/>
+    </row>
+    <row r="121" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18">
         <v>58</v>
       </c>
@@ -13891,8 +13996,9 @@
       <c r="S121" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T121" s="49"/>
+    </row>
+    <row r="122" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18">
         <v>63</v>
       </c>
@@ -13932,8 +14038,9 @@
       <c r="S122" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T122" s="49"/>
+    </row>
+    <row r="123" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18">
         <v>61</v>
       </c>
@@ -13977,8 +14084,9 @@
       <c r="S123" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T123" s="49"/>
+    </row>
+    <row r="124" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="18">
         <v>51</v>
       </c>
@@ -14022,8 +14130,9 @@
       <c r="S124" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T124" s="49"/>
+    </row>
+    <row r="125" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="18">
         <v>53</v>
       </c>
@@ -14067,8 +14176,9 @@
       <c r="S125" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T125" s="49"/>
+    </row>
+    <row r="126" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="18">
         <v>46</v>
       </c>
@@ -14112,8 +14222,9 @@
       <c r="S126" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T126" s="49"/>
+    </row>
+    <row r="127" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="18">
         <v>67</v>
       </c>
@@ -14157,8 +14268,9 @@
       <c r="S127" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T127" s="49"/>
+    </row>
+    <row r="128" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="18">
         <v>49</v>
       </c>
@@ -14202,8 +14314,9 @@
       <c r="S128" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T128" s="49"/>
+    </row>
+    <row r="129" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="18">
         <v>64</v>
       </c>
@@ -14247,8 +14360,9 @@
       <c r="S129" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T129" s="49"/>
+    </row>
+    <row r="130" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="18">
         <v>40</v>
       </c>
@@ -14292,8 +14406,9 @@
       <c r="S130" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T130" s="49"/>
+    </row>
+    <row r="131" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="18">
         <v>41</v>
       </c>
@@ -14337,8 +14452,9 @@
       <c r="S131" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T131" s="49"/>
+    </row>
+    <row r="132" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18">
         <v>47</v>
       </c>
@@ -14382,8 +14498,9 @@
       <c r="S132" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T132" s="49"/>
+    </row>
+    <row r="133" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="18">
         <v>54</v>
       </c>
@@ -14427,8 +14544,9 @@
       <c r="S133" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T133" s="49"/>
+    </row>
+    <row r="134" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="18">
         <v>60</v>
       </c>
@@ -14472,8 +14590,9 @@
       <c r="S134" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T134" s="49"/>
+    </row>
+    <row r="135" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="18">
         <v>42</v>
       </c>
@@ -14517,8 +14636,9 @@
       <c r="S135" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T135" s="49"/>
+    </row>
+    <row r="136" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="18">
         <v>65</v>
       </c>
@@ -14562,8 +14682,9 @@
       <c r="S136" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T136" s="49"/>
+    </row>
+    <row r="137" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="18">
         <v>55</v>
       </c>
@@ -14607,8 +14728,9 @@
       <c r="S137" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T137" s="49"/>
+    </row>
+    <row r="138" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="18">
         <v>56</v>
       </c>
@@ -14652,8 +14774,9 @@
       <c r="S138" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T138" s="49"/>
+    </row>
+    <row r="139" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="18">
         <v>52</v>
       </c>
@@ -14697,8 +14820,9 @@
       <c r="S139" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T139" s="49"/>
+    </row>
+    <row r="140" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="44">
         <v>66</v>
       </c>
@@ -14742,8 +14866,9 @@
         <v>1340</v>
       </c>
       <c r="S140" s="46"/>
-    </row>
-    <row r="141" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T140" s="49"/>
+    </row>
+    <row r="141" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="44">
         <v>67</v>
       </c>
@@ -14787,8 +14912,9 @@
         <v>1340</v>
       </c>
       <c r="S141" s="46"/>
-    </row>
-    <row r="142" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T141" s="49"/>
+    </row>
+    <row r="142" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="18"/>
       <c r="B142" s="16" t="s">
         <v>51</v>
@@ -14824,8 +14950,9 @@
       <c r="Q142" s="18"/>
       <c r="R142" s="18"/>
       <c r="S142" s="40"/>
-    </row>
-    <row r="143" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T142" s="49"/>
+    </row>
+    <row r="143" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="44">
         <v>68</v>
       </c>
@@ -14871,8 +14998,9 @@
       <c r="S143" s="46">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T143" s="49"/>
+    </row>
+    <row r="144" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="18"/>
       <c r="B144" s="16" t="s">
         <v>748</v>
@@ -14908,8 +15036,9 @@
       <c r="Q144" s="18"/>
       <c r="R144" s="18"/>
       <c r="S144" s="40"/>
-    </row>
-    <row r="145" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T144" s="49"/>
+    </row>
+    <row r="145" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="18">
         <v>62</v>
       </c>
@@ -14953,8 +15082,9 @@
       <c r="S145" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T145" s="49"/>
+    </row>
+    <row r="146" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="18">
         <v>59</v>
       </c>
@@ -14998,8 +15128,9 @@
       <c r="S146" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T146" s="49"/>
+    </row>
+    <row r="147" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="18"/>
       <c r="B147" s="16" t="s">
         <v>747</v>
@@ -15035,8 +15166,9 @@
       <c r="Q147" s="18"/>
       <c r="R147" s="18"/>
       <c r="S147" s="40"/>
-    </row>
-    <row r="148" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T147" s="49"/>
+    </row>
+    <row r="148" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="18"/>
       <c r="B148" s="16" t="s">
         <v>752</v>
@@ -15072,8 +15204,9 @@
       <c r="Q148" s="18"/>
       <c r="R148" s="18"/>
       <c r="S148" s="40"/>
-    </row>
-    <row r="149" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T148" s="49"/>
+    </row>
+    <row r="149" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="18"/>
       <c r="B149" s="16" t="s">
         <v>753</v>
@@ -15109,8 +15242,9 @@
       <c r="Q149" s="18"/>
       <c r="R149" s="18"/>
       <c r="S149" s="40"/>
-    </row>
-    <row r="150" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T149" s="49"/>
+    </row>
+    <row r="150" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="18"/>
       <c r="B150" s="16" t="s">
         <v>750</v>
@@ -15146,8 +15280,9 @@
       <c r="Q150" s="18"/>
       <c r="R150" s="18"/>
       <c r="S150" s="40"/>
-    </row>
-    <row r="151" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T150" s="49"/>
+    </row>
+    <row r="151" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="18"/>
       <c r="B151" s="16" t="s">
         <v>754</v>
@@ -15183,8 +15318,9 @@
       <c r="Q151" s="18"/>
       <c r="R151" s="18"/>
       <c r="S151" s="40"/>
-    </row>
-    <row r="152" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T151" s="49"/>
+    </row>
+    <row r="152" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="18">
         <v>66</v>
       </c>
@@ -15228,8 +15364,9 @@
       <c r="S152" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T152" s="49"/>
+    </row>
+    <row r="153" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="18">
         <v>57</v>
       </c>
@@ -15273,8 +15410,9 @@
       <c r="S153" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T153" s="49"/>
+    </row>
+    <row r="154" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="18"/>
       <c r="B154" s="16" t="s">
         <v>756</v>
@@ -15310,8 +15448,9 @@
       <c r="Q154" s="18"/>
       <c r="R154" s="18"/>
       <c r="S154" s="40"/>
-    </row>
-    <row r="155" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T154" s="49"/>
+    </row>
+    <row r="155" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="18"/>
       <c r="B155" s="16" t="s">
         <v>757</v>
@@ -15347,8 +15486,9 @@
       <c r="Q155" s="18"/>
       <c r="R155" s="18"/>
       <c r="S155" s="40"/>
-    </row>
-    <row r="156" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T155" s="49"/>
+    </row>
+    <row r="156" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="16">
         <v>39</v>
       </c>
@@ -15396,8 +15536,9 @@
       <c r="S156" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T156" s="49"/>
+    </row>
+    <row r="157" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="16">
         <v>48</v>
       </c>
@@ -15441,8 +15582,9 @@
       <c r="S157" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T157" s="49"/>
+    </row>
+    <row r="158" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="44">
         <v>69</v>
       </c>
@@ -15486,8 +15628,9 @@
         <v>1340</v>
       </c>
       <c r="S158" s="46"/>
-    </row>
-    <row r="159" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T158" s="49"/>
+    </row>
+    <row r="159" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="18"/>
       <c r="B159" s="16" t="s">
         <v>956</v>
@@ -15525,8 +15668,9 @@
       <c r="Q159" s="18"/>
       <c r="R159" s="18"/>
       <c r="S159" s="40"/>
-    </row>
-    <row r="160" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T159" s="49"/>
+    </row>
+    <row r="160" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="44">
         <v>70</v>
       </c>
@@ -15570,8 +15714,9 @@
         <v>1340</v>
       </c>
       <c r="S160" s="46"/>
-    </row>
-    <row r="161" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T160" s="49"/>
+    </row>
+    <row r="161" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="44">
         <v>71</v>
       </c>
@@ -15615,8 +15760,9 @@
         <v>1340</v>
       </c>
       <c r="S161" s="46"/>
-    </row>
-    <row r="162" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T161" s="49"/>
+    </row>
+    <row r="162" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="44">
         <v>72</v>
       </c>
@@ -15658,8 +15804,9 @@
         <v>1340</v>
       </c>
       <c r="S162" s="46"/>
-    </row>
-    <row r="163" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T162" s="49"/>
+    </row>
+    <row r="163" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="44">
         <v>73</v>
       </c>
@@ -15703,8 +15850,9 @@
         <v>1340</v>
       </c>
       <c r="S163" s="46"/>
-    </row>
-    <row r="164" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T163" s="49"/>
+    </row>
+    <row r="164" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="18"/>
       <c r="B164" s="16" t="s">
         <v>321</v>
@@ -15740,8 +15888,9 @@
       <c r="Q164" s="18"/>
       <c r="R164" s="18"/>
       <c r="S164" s="40"/>
-    </row>
-    <row r="165" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T164" s="49"/>
+    </row>
+    <row r="165" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="18">
         <v>45</v>
       </c>
@@ -15785,8 +15934,9 @@
       <c r="S165" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T165" s="49"/>
+    </row>
+    <row r="166" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="18"/>
       <c r="B166" s="16" t="s">
         <v>762</v>
@@ -15822,8 +15972,9 @@
       <c r="Q166" s="18"/>
       <c r="R166" s="18"/>
       <c r="S166" s="40"/>
-    </row>
-    <row r="167" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T166" s="49"/>
+    </row>
+    <row r="167" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="18"/>
       <c r="B167" s="16" t="s">
         <v>759</v>
@@ -15859,8 +16010,9 @@
       <c r="Q167" s="18"/>
       <c r="R167" s="18"/>
       <c r="S167" s="40"/>
-    </row>
-    <row r="168" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T167" s="49"/>
+    </row>
+    <row r="168" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="18"/>
       <c r="B168" s="16" t="s">
         <v>763</v>
@@ -15896,8 +16048,9 @@
       <c r="Q168" s="18"/>
       <c r="R168" s="18"/>
       <c r="S168" s="40"/>
-    </row>
-    <row r="169" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T168" s="49"/>
+    </row>
+    <row r="169" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="18">
         <v>44</v>
       </c>
@@ -15941,8 +16094,9 @@
       <c r="S169" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T169" s="49"/>
+    </row>
+    <row r="170" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="18">
         <v>43</v>
       </c>
@@ -15986,8 +16140,9 @@
       <c r="S170" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T170" s="49"/>
+    </row>
+    <row r="171" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="18"/>
       <c r="B171" s="16" t="s">
         <v>765</v>
@@ -16023,8 +16178,9 @@
       <c r="Q171" s="18"/>
       <c r="R171" s="18"/>
       <c r="S171" s="40"/>
-    </row>
-    <row r="172" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T171" s="49"/>
+    </row>
+    <row r="172" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="18"/>
       <c r="B172" s="16" t="s">
         <v>766</v>
@@ -16060,8 +16216,9 @@
       <c r="Q172" s="18"/>
       <c r="R172" s="18"/>
       <c r="S172" s="40"/>
-    </row>
-    <row r="173" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T172" s="49"/>
+    </row>
+    <row r="173" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="44">
         <v>74</v>
       </c>
@@ -16103,8 +16260,9 @@
         <v>1340</v>
       </c>
       <c r="S173" s="46"/>
-    </row>
-    <row r="174" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T173" s="49"/>
+    </row>
+    <row r="174" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="44">
         <v>75</v>
       </c>
@@ -16146,8 +16304,9 @@
         <v>1340</v>
       </c>
       <c r="S174" s="46"/>
-    </row>
-    <row r="175" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T174" s="49"/>
+    </row>
+    <row r="175" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="44">
         <v>76</v>
       </c>
@@ -16191,8 +16350,9 @@
         <v>1340</v>
       </c>
       <c r="S175" s="46"/>
-    </row>
-    <row r="176" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T175" s="49"/>
+    </row>
+    <row r="176" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="18"/>
       <c r="B176" s="16" t="s">
         <v>1283</v>
@@ -16228,8 +16388,9 @@
       <c r="Q176" s="18"/>
       <c r="R176" s="18"/>
       <c r="S176" s="40"/>
-    </row>
-    <row r="177" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T176" s="49"/>
+    </row>
+    <row r="177" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="18"/>
       <c r="B177" s="16" t="s">
         <v>1284</v>
@@ -16265,8 +16426,9 @@
       <c r="Q177" s="18"/>
       <c r="R177" s="18"/>
       <c r="S177" s="40"/>
-    </row>
-    <row r="178" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T177" s="49"/>
+    </row>
+    <row r="178" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="18"/>
       <c r="B178" s="16" t="s">
         <v>1286</v>
@@ -16302,8 +16464,9 @@
       <c r="Q178" s="18"/>
       <c r="R178" s="18"/>
       <c r="S178" s="40"/>
-    </row>
-    <row r="179" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T178" s="49"/>
+    </row>
+    <row r="179" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="18"/>
       <c r="B179" s="16" t="s">
         <v>1285</v>
@@ -16339,8 +16502,9 @@
       <c r="Q179" s="18"/>
       <c r="R179" s="18"/>
       <c r="S179" s="40"/>
-    </row>
-    <row r="180" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T179" s="49"/>
+    </row>
+    <row r="180" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="18"/>
       <c r="B180" s="16" t="s">
         <v>1287</v>
@@ -16376,8 +16540,9 @@
       <c r="Q180" s="18"/>
       <c r="R180" s="18"/>
       <c r="S180" s="40"/>
-    </row>
-    <row r="181" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T180" s="49"/>
+    </row>
+    <row r="181" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="18"/>
       <c r="B181" s="16" t="s">
         <v>1288</v>
@@ -16413,8 +16578,9 @@
       <c r="Q181" s="18"/>
       <c r="R181" s="18"/>
       <c r="S181" s="40"/>
-    </row>
-    <row r="182" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T181" s="49"/>
+    </row>
+    <row r="182" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="44">
         <v>77</v>
       </c>
@@ -16456,8 +16622,9 @@
         <v>1340</v>
       </c>
       <c r="S182" s="46"/>
-    </row>
-    <row r="183" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T182" s="49"/>
+    </row>
+    <row r="183" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="44">
         <v>78</v>
       </c>
@@ -16501,8 +16668,9 @@
         <v>1340</v>
       </c>
       <c r="S183" s="46"/>
-    </row>
-    <row r="184" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T183" s="49"/>
+    </row>
+    <row r="184" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="18"/>
       <c r="B184" s="16" t="s">
         <v>808</v>
@@ -16538,8 +16706,9 @@
       <c r="Q184" s="18"/>
       <c r="R184" s="18"/>
       <c r="S184" s="40"/>
-    </row>
-    <row r="185" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T184" s="49"/>
+    </row>
+    <row r="185" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="18"/>
       <c r="B185" s="16" t="s">
         <v>721</v>
@@ -16575,8 +16744,9 @@
       <c r="Q185" s="18"/>
       <c r="R185" s="18"/>
       <c r="S185" s="40"/>
-    </row>
-    <row r="186" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T185" s="49"/>
+    </row>
+    <row r="186" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="18"/>
       <c r="B186" s="16" t="s">
         <v>1289</v>
@@ -16612,8 +16782,9 @@
       <c r="Q186" s="18"/>
       <c r="R186" s="18"/>
       <c r="S186" s="40"/>
-    </row>
-    <row r="187" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T186" s="49"/>
+    </row>
+    <row r="187" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="18"/>
       <c r="B187" s="16" t="s">
         <v>1290</v>
@@ -16649,8 +16820,9 @@
       <c r="Q187" s="18"/>
       <c r="R187" s="18"/>
       <c r="S187" s="40"/>
-    </row>
-    <row r="188" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T187" s="49"/>
+    </row>
+    <row r="188" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="18">
         <v>200</v>
       </c>
@@ -16696,8 +16868,9 @@
       <c r="S188" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T188" s="49"/>
+    </row>
+    <row r="189" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="18"/>
       <c r="B189" s="16" t="s">
         <v>1292</v>
@@ -16733,8 +16906,9 @@
       <c r="Q189" s="18"/>
       <c r="R189" s="18"/>
       <c r="S189" s="40"/>
-    </row>
-    <row r="190" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T189" s="49"/>
+    </row>
+    <row r="190" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="44">
         <v>79</v>
       </c>
@@ -16778,8 +16952,9 @@
         <v>1340</v>
       </c>
       <c r="S190" s="46"/>
-    </row>
-    <row r="191" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T190" s="49"/>
+    </row>
+    <row r="191" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="44">
         <v>80</v>
       </c>
@@ -16823,8 +16998,9 @@
         <v>1340</v>
       </c>
       <c r="S191" s="46"/>
-    </row>
-    <row r="192" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T191" s="49"/>
+    </row>
+    <row r="192" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="44">
         <v>81</v>
       </c>
@@ -16868,8 +17044,9 @@
         <v>1340</v>
       </c>
       <c r="S192" s="46"/>
-    </row>
-    <row r="193" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T192" s="49"/>
+    </row>
+    <row r="193" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="18"/>
       <c r="B193" s="16" t="s">
         <v>1294</v>
@@ -16905,8 +17082,9 @@
       <c r="Q193" s="18"/>
       <c r="R193" s="18"/>
       <c r="S193" s="40"/>
-    </row>
-    <row r="194" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T193" s="49"/>
+    </row>
+    <row r="194" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="18"/>
       <c r="B194" s="16" t="s">
         <v>1295</v>
@@ -16942,8 +17120,9 @@
       <c r="Q194" s="18"/>
       <c r="R194" s="18"/>
       <c r="S194" s="40"/>
-    </row>
-    <row r="195" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T194" s="49"/>
+    </row>
+    <row r="195" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="18"/>
       <c r="B195" s="16" t="s">
         <v>1296</v>
@@ -16979,8 +17158,9 @@
       <c r="Q195" s="18"/>
       <c r="R195" s="18"/>
       <c r="S195" s="40"/>
-    </row>
-    <row r="196" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T195" s="49"/>
+    </row>
+    <row r="196" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="87">
         <v>82</v>
       </c>
@@ -17023,8 +17203,9 @@
       <c r="R196" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="197" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T196" s="49"/>
+    </row>
+    <row r="197" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="87">
         <v>83</v>
       </c>
@@ -17067,8 +17248,9 @@
       <c r="R197" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="198" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T197" s="49"/>
+    </row>
+    <row r="198" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="87">
         <v>84</v>
       </c>
@@ -17111,8 +17293,9 @@
       <c r="R198" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="199" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T198" s="49"/>
+    </row>
+    <row r="199" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="87">
         <v>85</v>
       </c>
@@ -17155,8 +17338,9 @@
       <c r="R199" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="200" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T199" s="49"/>
+    </row>
+    <row r="200" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="87">
         <v>86</v>
       </c>
@@ -17200,8 +17384,9 @@
         <v>1340</v>
       </c>
       <c r="S200" s="46"/>
-    </row>
-    <row r="201" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T200" s="49"/>
+    </row>
+    <row r="201" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="87">
         <v>87</v>
       </c>
@@ -17245,8 +17430,9 @@
         <v>1340</v>
       </c>
       <c r="S201" s="46"/>
-    </row>
-    <row r="202" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T201" s="49"/>
+    </row>
+    <row r="202" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="87">
         <v>88</v>
       </c>
@@ -17290,8 +17476,9 @@
         <v>1340</v>
       </c>
       <c r="S202" s="46"/>
-    </row>
-    <row r="203" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T202" s="49"/>
+    </row>
+    <row r="203" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B203" s="16" t="s">
         <v>1297</v>
       </c>
@@ -17323,8 +17510,9 @@
       <c r="P203" s="16" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="204" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T203" s="49"/>
+    </row>
+    <row r="204" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B204" s="16" t="s">
         <v>1298</v>
       </c>
@@ -17356,8 +17544,9 @@
       <c r="P204" s="16" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="205" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T204" s="49"/>
+    </row>
+    <row r="205" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="87">
         <v>89</v>
       </c>
@@ -17400,8 +17589,9 @@
       <c r="R205" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="206" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T205" s="49"/>
+    </row>
+    <row r="206" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="87">
         <v>90</v>
       </c>
@@ -17444,8 +17634,9 @@
       <c r="R206" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="207" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T206" s="49"/>
+    </row>
+    <row r="207" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="87">
         <v>91</v>
       </c>
@@ -17488,8 +17679,9 @@
       <c r="R207" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="208" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T207" s="49"/>
+    </row>
+    <row r="208" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="87">
         <v>92</v>
       </c>
@@ -17532,8 +17724,9 @@
       <c r="R208" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="209" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T208" s="49"/>
+    </row>
+    <row r="209" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="21">
         <v>195</v>
       </c>
@@ -17579,8 +17772,9 @@
       <c r="S209" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T209" s="49"/>
+    </row>
+    <row r="210" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B210" s="16" t="s">
         <v>1293</v>
       </c>
@@ -17612,8 +17806,9 @@
       <c r="P210" s="16" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="211" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T210" s="49"/>
+    </row>
+    <row r="211" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B211" s="16" t="s">
         <v>1299</v>
       </c>
@@ -17645,8 +17840,9 @@
       <c r="P211" s="16" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="212" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T211" s="49"/>
+    </row>
+    <row r="212" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B212" s="16" t="s">
         <v>1300</v>
       </c>
@@ -17678,8 +17874,9 @@
       <c r="P212" s="16" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="213" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T212" s="49"/>
+    </row>
+    <row r="213" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B213" s="16" t="s">
         <v>1301</v>
       </c>
@@ -17711,8 +17908,9 @@
       <c r="P213" s="16" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="214" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T213" s="49"/>
+    </row>
+    <row r="214" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="18"/>
       <c r="B214" s="19" t="s">
         <v>344</v>
@@ -17748,8 +17946,9 @@
       <c r="Q214" s="21"/>
       <c r="R214" s="21"/>
       <c r="S214" s="21"/>
-    </row>
-    <row r="215" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T214" s="49"/>
+    </row>
+    <row r="215" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="18"/>
       <c r="B215" s="19" t="s">
         <v>345</v>
@@ -17785,8 +17984,9 @@
       <c r="Q215" s="21"/>
       <c r="R215" s="21"/>
       <c r="S215" s="21"/>
-    </row>
-    <row r="216" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T215" s="49"/>
+    </row>
+    <row r="216" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="18"/>
       <c r="B216" s="19" t="s">
         <v>346</v>
@@ -17822,8 +18022,9 @@
       <c r="Q216" s="21"/>
       <c r="R216" s="21"/>
       <c r="S216" s="21"/>
-    </row>
-    <row r="217" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T216" s="49"/>
+    </row>
+    <row r="217" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="18"/>
       <c r="B217" s="19" t="s">
         <v>347</v>
@@ -17859,8 +18060,9 @@
       <c r="Q217" s="21"/>
       <c r="R217" s="21"/>
       <c r="S217" s="21"/>
-    </row>
-    <row r="218" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T217" s="49"/>
+    </row>
+    <row r="218" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="18"/>
       <c r="B218" s="19" t="s">
         <v>348</v>
@@ -17896,8 +18098,9 @@
       <c r="Q218" s="21"/>
       <c r="R218" s="21"/>
       <c r="S218" s="21"/>
-    </row>
-    <row r="219" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T218" s="49"/>
+    </row>
+    <row r="219" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="18"/>
       <c r="B219" s="19" t="s">
         <v>349</v>
@@ -17933,8 +18136,9 @@
       <c r="Q219" s="21"/>
       <c r="R219" s="21"/>
       <c r="S219" s="21"/>
-    </row>
-    <row r="220" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T219" s="49"/>
+    </row>
+    <row r="220" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="18"/>
       <c r="B220" s="19" t="s">
         <v>350</v>
@@ -17970,8 +18174,9 @@
       <c r="Q220" s="21"/>
       <c r="R220" s="21"/>
       <c r="S220" s="21"/>
-    </row>
-    <row r="221" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T220" s="49"/>
+    </row>
+    <row r="221" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="18"/>
       <c r="B221" s="19" t="s">
         <v>357</v>
@@ -18007,8 +18212,9 @@
       <c r="Q221" s="21"/>
       <c r="R221" s="21"/>
       <c r="S221" s="21"/>
-    </row>
-    <row r="222" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T221" s="49"/>
+    </row>
+    <row r="222" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="18">
         <v>155</v>
       </c>
@@ -18052,8 +18258,9 @@
       <c r="S222" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T222" s="49"/>
+    </row>
+    <row r="223" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="18">
         <v>148</v>
       </c>
@@ -18105,8 +18312,9 @@
       <c r="S223" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T223" s="49"/>
+    </row>
+    <row r="224" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="18"/>
       <c r="B224" s="19" t="s">
         <v>361</v>
@@ -18142,8 +18350,9 @@
       <c r="Q224" s="21"/>
       <c r="R224" s="21"/>
       <c r="S224" s="21"/>
-    </row>
-    <row r="225" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T224" s="49"/>
+    </row>
+    <row r="225" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="18"/>
       <c r="B225" s="19" t="s">
         <v>362</v>
@@ -18179,8 +18388,9 @@
       <c r="Q225" s="21"/>
       <c r="R225" s="21"/>
       <c r="S225" s="21"/>
-    </row>
-    <row r="226" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T225" s="49"/>
+    </row>
+    <row r="226" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="18"/>
       <c r="B226" s="19" t="s">
         <v>363</v>
@@ -18216,8 +18426,9 @@
       <c r="Q226" s="21"/>
       <c r="R226" s="21"/>
       <c r="S226" s="21"/>
-    </row>
-    <row r="227" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T226" s="49"/>
+    </row>
+    <row r="227" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="18"/>
       <c r="B227" s="19" t="s">
         <v>67</v>
@@ -18253,8 +18464,9 @@
       <c r="Q227" s="21"/>
       <c r="R227" s="21"/>
       <c r="S227" s="21"/>
-    </row>
-    <row r="228" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T227" s="49"/>
+    </row>
+    <row r="228" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="18"/>
       <c r="B228" s="19" t="s">
         <v>74</v>
@@ -18290,8 +18502,9 @@
       <c r="Q228" s="21"/>
       <c r="R228" s="21"/>
       <c r="S228" s="21"/>
-    </row>
-    <row r="229" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T228" s="49"/>
+    </row>
+    <row r="229" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="18"/>
       <c r="B229" s="19" t="s">
         <v>75</v>
@@ -18327,8 +18540,9 @@
       <c r="Q229" s="21"/>
       <c r="R229" s="21"/>
       <c r="S229" s="21"/>
-    </row>
-    <row r="230" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T229" s="49"/>
+    </row>
+    <row r="230" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="18"/>
       <c r="B230" s="19" t="s">
         <v>78</v>
@@ -18364,8 +18578,9 @@
       <c r="Q230" s="21"/>
       <c r="R230" s="21"/>
       <c r="S230" s="21"/>
-    </row>
-    <row r="231" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T230" s="49"/>
+    </row>
+    <row r="231" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="18"/>
       <c r="B231" s="19" t="s">
         <v>80</v>
@@ -18401,8 +18616,9 @@
       <c r="Q231" s="21"/>
       <c r="R231" s="21"/>
       <c r="S231" s="21"/>
-    </row>
-    <row r="232" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T231" s="49"/>
+    </row>
+    <row r="232" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="44">
         <v>93</v>
       </c>
@@ -18447,8 +18663,9 @@
       <c r="R232" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="233" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T232" s="49"/>
+    </row>
+    <row r="233" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="44">
         <v>94</v>
       </c>
@@ -18489,8 +18706,9 @@
       <c r="R233" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="234" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T233" s="49"/>
+    </row>
+    <row r="234" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="44">
         <v>95</v>
       </c>
@@ -18531,8 +18749,9 @@
       <c r="R234" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="235" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T234" s="49"/>
+    </row>
+    <row r="235" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="44">
         <v>96</v>
       </c>
@@ -18573,8 +18792,9 @@
       <c r="R235" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="236" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T235" s="49"/>
+    </row>
+    <row r="236" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="44">
         <v>97</v>
       </c>
@@ -18617,8 +18837,9 @@
       <c r="R236" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="237" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T236" s="49"/>
+    </row>
+    <row r="237" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="44">
         <v>98</v>
       </c>
@@ -18659,8 +18880,9 @@
       <c r="R237" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="238" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T237" s="49"/>
+    </row>
+    <row r="238" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="18">
         <v>143</v>
       </c>
@@ -18704,8 +18926,9 @@
       <c r="S238" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T238" s="49"/>
+    </row>
+    <row r="239" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="44">
         <v>99</v>
       </c>
@@ -18746,8 +18969,9 @@
       <c r="R239" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="240" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T239" s="49"/>
+    </row>
+    <row r="240" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="44"/>
       <c r="B240" s="26"/>
       <c r="C240" s="26"/>
@@ -18766,8 +18990,9 @@
       <c r="P240" s="45"/>
       <c r="Q240" s="44"/>
       <c r="R240" s="44"/>
-    </row>
-    <row r="241" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T240" s="49"/>
+    </row>
+    <row r="241" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="44">
         <v>100</v>
       </c>
@@ -18814,8 +19039,9 @@
       <c r="R241" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="242" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T241" s="49"/>
+    </row>
+    <row r="242" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="44">
         <v>101</v>
       </c>
@@ -18856,8 +19082,9 @@
       <c r="R242" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="243" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T242" s="49"/>
+    </row>
+    <row r="243" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="44">
         <v>102</v>
       </c>
@@ -18898,8 +19125,9 @@
       <c r="R243" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="244" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T243" s="49"/>
+    </row>
+    <row r="244" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="44">
         <v>103</v>
       </c>
@@ -18940,8 +19168,9 @@
       <c r="R244" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="245" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T244" s="49"/>
+    </row>
+    <row r="245" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="44">
         <v>104</v>
       </c>
@@ -18982,8 +19211,9 @@
       <c r="R245" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="246" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T245" s="49"/>
+    </row>
+    <row r="246" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="18">
         <v>152</v>
       </c>
@@ -19027,8 +19257,9 @@
       <c r="S246" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T246" s="49"/>
+    </row>
+    <row r="247" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="18">
         <v>153</v>
       </c>
@@ -19072,8 +19303,9 @@
       <c r="S247" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T247" s="49"/>
+    </row>
+    <row r="248" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="44">
         <v>105</v>
       </c>
@@ -19114,8 +19346,9 @@
       <c r="R248" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="249" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T248" s="49"/>
+    </row>
+    <row r="249" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="44">
         <v>106</v>
       </c>
@@ -19156,8 +19389,9 @@
       <c r="R249" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="250" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T249" s="49"/>
+    </row>
+    <row r="250" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="44">
         <v>107</v>
       </c>
@@ -19202,8 +19436,9 @@
       <c r="R250" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="251" spans="1:19" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T250" s="49"/>
+    </row>
+    <row r="251" spans="1:20" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="18"/>
       <c r="B251" s="19" t="s">
         <v>854</v>
@@ -19241,8 +19476,9 @@
       <c r="Q251" s="21"/>
       <c r="R251" s="21"/>
       <c r="S251" s="21"/>
-    </row>
-    <row r="252" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T251" s="49"/>
+    </row>
+    <row r="252" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="44">
         <v>108</v>
       </c>
@@ -19285,8 +19521,9 @@
       <c r="R252" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="253" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T252" s="49"/>
+    </row>
+    <row r="253" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="44">
         <v>109</v>
       </c>
@@ -19329,8 +19566,9 @@
       <c r="R253" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="254" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T253" s="49"/>
+    </row>
+    <row r="254" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="44">
         <v>110</v>
       </c>
@@ -19371,8 +19609,9 @@
       <c r="R254" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="255" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T254" s="49"/>
+    </row>
+    <row r="255" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="44">
         <v>111</v>
       </c>
@@ -19413,8 +19652,9 @@
       <c r="R255" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="256" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T255" s="49"/>
+    </row>
+    <row r="256" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="44">
         <v>112</v>
       </c>
@@ -19455,8 +19695,9 @@
       <c r="R256" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="257" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T256" s="49"/>
+    </row>
+    <row r="257" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="44">
         <v>113</v>
       </c>
@@ -19501,8 +19742,9 @@
       <c r="R257" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="258" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T257" s="49"/>
+    </row>
+    <row r="258" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="44">
         <v>114</v>
       </c>
@@ -19543,8 +19785,9 @@
       <c r="R258" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="259" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T258" s="49"/>
+    </row>
+    <row r="259" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="44">
         <v>115</v>
       </c>
@@ -19595,8 +19838,9 @@
       <c r="R259" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="260" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T259" s="49"/>
+    </row>
+    <row r="260" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="44">
         <v>116</v>
       </c>
@@ -19637,8 +19881,9 @@
       <c r="R260" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="261" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T260" s="49"/>
+    </row>
+    <row r="261" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="18"/>
       <c r="B261" s="19" t="s">
         <v>80</v>
@@ -19674,8 +19919,9 @@
       <c r="Q261" s="21"/>
       <c r="R261" s="21"/>
       <c r="S261" s="21"/>
-    </row>
-    <row r="262" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T261" s="49"/>
+    </row>
+    <row r="262" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="44">
         <v>117</v>
       </c>
@@ -19716,8 +19962,9 @@
       <c r="R262" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="263" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T262" s="49"/>
+    </row>
+    <row r="263" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="44">
         <v>118</v>
       </c>
@@ -19764,8 +20011,9 @@
       <c r="R263" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="264" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T263" s="49"/>
+    </row>
+    <row r="264" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="18">
         <v>151</v>
       </c>
@@ -19817,8 +20065,9 @@
       <c r="S264" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T264" s="49"/>
+    </row>
+    <row r="265" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="18">
         <v>146</v>
       </c>
@@ -19862,8 +20111,9 @@
       <c r="S265" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T265" s="49"/>
+    </row>
+    <row r="266" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="18">
         <v>156</v>
       </c>
@@ -19907,8 +20157,9 @@
       <c r="S266" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T266" s="49"/>
+    </row>
+    <row r="267" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="18">
         <v>147</v>
       </c>
@@ -19952,8 +20203,9 @@
       <c r="S267" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T267" s="49"/>
+    </row>
+    <row r="268" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="18">
         <v>157</v>
       </c>
@@ -19997,8 +20249,9 @@
       <c r="S268" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T268" s="49"/>
+    </row>
+    <row r="269" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="18">
         <v>160</v>
       </c>
@@ -20042,8 +20295,9 @@
       <c r="S269" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T269" s="49"/>
+    </row>
+    <row r="270" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="18">
         <v>139</v>
       </c>
@@ -20087,8 +20341,9 @@
       <c r="S270" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T270" s="49"/>
+    </row>
+    <row r="271" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="18">
         <v>136</v>
       </c>
@@ -20132,8 +20387,9 @@
       <c r="S271" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T271" s="49"/>
+    </row>
+    <row r="272" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="44">
         <v>119</v>
       </c>
@@ -20182,8 +20438,9 @@
       <c r="R272" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="273" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T272" s="49"/>
+    </row>
+    <row r="273" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="18">
         <v>159</v>
       </c>
@@ -20227,8 +20484,9 @@
       <c r="S273" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T273" s="49"/>
+    </row>
+    <row r="274" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="18">
         <v>154</v>
       </c>
@@ -20272,8 +20530,9 @@
       <c r="S274" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T274" s="49"/>
+    </row>
+    <row r="275" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="18">
         <v>145</v>
       </c>
@@ -20317,8 +20576,9 @@
       <c r="S275" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T275" s="49"/>
+    </row>
+    <row r="276" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="18">
         <v>138</v>
       </c>
@@ -20362,8 +20622,9 @@
       <c r="S276" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T276" s="49"/>
+    </row>
+    <row r="277" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="18">
         <v>144</v>
       </c>
@@ -20407,8 +20668,9 @@
       <c r="S277" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T277" s="49"/>
+    </row>
+    <row r="278" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="18">
         <v>142</v>
       </c>
@@ -20452,8 +20714,9 @@
       <c r="S278" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T278" s="49"/>
+    </row>
+    <row r="279" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="18">
         <v>137</v>
       </c>
@@ -20497,8 +20760,9 @@
       <c r="S279" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T279" s="49"/>
+    </row>
+    <row r="280" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="44">
         <v>120</v>
       </c>
@@ -20547,8 +20811,9 @@
       <c r="R280" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="281" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T280" s="49"/>
+    </row>
+    <row r="281" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="18">
         <v>156</v>
       </c>
@@ -20592,8 +20857,9 @@
       <c r="S281" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T281" s="49"/>
+    </row>
+    <row r="282" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="18">
         <v>140</v>
       </c>
@@ -20637,8 +20903,9 @@
       <c r="S282" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T282" s="49"/>
+    </row>
+    <row r="283" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="18">
         <v>155</v>
       </c>
@@ -20682,8 +20949,9 @@
       <c r="S283" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T283" s="49"/>
+    </row>
+    <row r="284" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="18">
         <v>153</v>
       </c>
@@ -20727,8 +20995,9 @@
       <c r="S284" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T284" s="49"/>
+    </row>
+    <row r="285" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="18">
         <v>151</v>
       </c>
@@ -20772,8 +21041,9 @@
       <c r="S285" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T285" s="49"/>
+    </row>
+    <row r="286" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="18">
         <v>152</v>
       </c>
@@ -20817,8 +21087,9 @@
       <c r="S286" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T286" s="49"/>
+    </row>
+    <row r="287" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="18">
         <v>150</v>
       </c>
@@ -20864,8 +21135,9 @@
       <c r="S287" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T287" s="49"/>
+    </row>
+    <row r="288" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="18">
         <v>153</v>
       </c>
@@ -20913,8 +21185,9 @@
       <c r="S288" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T288" s="49"/>
+    </row>
+    <row r="289" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="18">
         <v>155</v>
       </c>
@@ -20958,8 +21231,9 @@
       <c r="S289" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T289" s="49"/>
+    </row>
+    <row r="290" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="18">
         <v>150</v>
       </c>
@@ -21009,8 +21283,9 @@
       <c r="S290" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T290" s="49"/>
+    </row>
+    <row r="291" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="18">
         <v>151</v>
       </c>
@@ -21056,8 +21331,9 @@
       <c r="S291" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T291" s="49"/>
+    </row>
+    <row r="292" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="18">
         <v>152</v>
       </c>
@@ -21105,8 +21381,9 @@
       <c r="S292" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T292" s="49"/>
+    </row>
+    <row r="293" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="18">
         <v>189</v>
       </c>
@@ -21152,8 +21429,9 @@
       <c r="S293" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T293" s="49"/>
+    </row>
+    <row r="294" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="18">
         <v>158</v>
       </c>
@@ -21197,8 +21475,9 @@
       <c r="S294" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T294" s="49"/>
+    </row>
+    <row r="295" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="18">
         <v>149</v>
       </c>
@@ -21242,8 +21521,9 @@
       <c r="S295" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T295" s="49"/>
+    </row>
+    <row r="296" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="18">
         <v>151</v>
       </c>
@@ -21289,8 +21569,9 @@
       <c r="S296" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T296" s="49"/>
+    </row>
+    <row r="297" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="18">
         <v>163</v>
       </c>
@@ -21334,8 +21615,9 @@
       <c r="S297" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T297" s="49"/>
+    </row>
+    <row r="298" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="18">
         <v>141</v>
       </c>
@@ -21379,8 +21661,9 @@
       <c r="S298" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T298" s="49"/>
+    </row>
+    <row r="299" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="18">
         <v>150</v>
       </c>
@@ -21424,8 +21707,9 @@
       <c r="S299" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T299" s="49"/>
+    </row>
+    <row r="300" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="18">
         <v>161</v>
       </c>
@@ -21469,8 +21753,9 @@
       <c r="S300" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T300" s="49"/>
+    </row>
+    <row r="301" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="18">
         <v>152</v>
       </c>
@@ -21514,8 +21799,9 @@
       <c r="S301" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T301" s="49"/>
+    </row>
+    <row r="302" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="18">
         <v>157</v>
       </c>
@@ -21559,8 +21845,9 @@
       <c r="S302" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T302" s="49"/>
+    </row>
+    <row r="303" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="18"/>
       <c r="B303" s="19" t="s">
         <v>104</v>
@@ -21596,8 +21883,9 @@
       <c r="Q303" s="21"/>
       <c r="R303" s="21"/>
       <c r="S303" s="21"/>
-    </row>
-    <row r="304" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T303" s="49"/>
+    </row>
+    <row r="304" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="44">
         <v>121</v>
       </c>
@@ -21640,8 +21928,9 @@
       <c r="R304" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="305" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T304" s="49"/>
+    </row>
+    <row r="305" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="44">
         <v>122</v>
       </c>
@@ -21686,8 +21975,9 @@
       <c r="R305" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="306" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T305" s="49"/>
+    </row>
+    <row r="306" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="44">
         <v>123</v>
       </c>
@@ -21728,8 +22018,9 @@
       <c r="R306" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="307" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T306" s="49"/>
+    </row>
+    <row r="307" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="44">
         <v>124</v>
       </c>
@@ -21776,8 +22067,9 @@
       <c r="R307" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="308" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T307" s="49"/>
+    </row>
+    <row r="308" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="44">
         <v>125</v>
       </c>
@@ -21820,8 +22112,9 @@
       <c r="R308" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="309" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T308" s="49"/>
+    </row>
+    <row r="309" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="44">
         <v>126</v>
       </c>
@@ -21866,8 +22159,9 @@
       <c r="R309" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="310" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T309" s="49"/>
+    </row>
+    <row r="310" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="44">
         <v>127</v>
       </c>
@@ -21910,8 +22204,9 @@
       <c r="R310" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="311" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T310" s="49"/>
+    </row>
+    <row r="311" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="44">
         <v>128</v>
       </c>
@@ -21954,8 +22249,9 @@
       <c r="R311" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="312" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T311" s="49"/>
+    </row>
+    <row r="312" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="18"/>
       <c r="B312" s="19" t="s">
         <v>938</v>
@@ -21988,8 +22284,9 @@
       <c r="P312" s="16" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="313" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T312" s="49"/>
+    </row>
+    <row r="313" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B313" s="19" t="s">
         <v>190</v>
       </c>
@@ -22021,8 +22318,9 @@
       <c r="P313" s="16" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="314" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T313" s="49"/>
+    </row>
+    <row r="314" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B314" s="19" t="s">
         <v>191</v>
       </c>
@@ -22054,8 +22352,9 @@
       <c r="P314" s="16" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="315" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T314" s="49"/>
+    </row>
+    <row r="315" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B315" s="19" t="s">
         <v>192</v>
       </c>
@@ -22087,8 +22386,9 @@
       <c r="P315" s="16" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="316" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T315" s="49"/>
+    </row>
+    <row r="316" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B316" s="19" t="s">
         <v>190</v>
       </c>
@@ -22120,8 +22420,9 @@
       <c r="P316" s="16" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="317" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T316" s="49"/>
+    </row>
+    <row r="317" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B317" s="19" t="s">
         <v>191</v>
       </c>
@@ -22153,8 +22454,9 @@
       <c r="P317" s="16" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="318" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T317" s="49"/>
+    </row>
+    <row r="318" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B318" s="19" t="s">
         <v>192</v>
       </c>
@@ -22186,8 +22488,9 @@
       <c r="P318" s="16" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="319" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T318" s="49"/>
+    </row>
+    <row r="319" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="18"/>
       <c r="B319" s="19" t="s">
         <v>193</v>
@@ -22223,8 +22526,9 @@
       <c r="Q319" s="18"/>
       <c r="R319" s="18"/>
       <c r="S319" s="40"/>
-    </row>
-    <row r="320" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T319" s="49"/>
+    </row>
+    <row r="320" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="18"/>
       <c r="B320" s="19" t="s">
         <v>194</v>
@@ -22260,8 +22564,9 @@
       <c r="Q320" s="18"/>
       <c r="R320" s="18"/>
       <c r="S320" s="40"/>
-    </row>
-    <row r="321" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T320" s="49"/>
+    </row>
+    <row r="321" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="18"/>
       <c r="B321" s="19" t="s">
         <v>195</v>
@@ -22297,8 +22602,9 @@
       <c r="Q321" s="18"/>
       <c r="R321" s="18"/>
       <c r="S321" s="40"/>
-    </row>
-    <row r="322" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T321" s="49"/>
+    </row>
+    <row r="322" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="18"/>
       <c r="B322" s="19" t="s">
         <v>196</v>
@@ -22334,8 +22640,9 @@
       <c r="Q322" s="18"/>
       <c r="R322" s="18"/>
       <c r="S322" s="40"/>
-    </row>
-    <row r="323" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T322" s="49"/>
+    </row>
+    <row r="323" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="18"/>
       <c r="B323" s="19" t="s">
         <v>197</v>
@@ -22371,8 +22678,9 @@
       <c r="Q323" s="18"/>
       <c r="R323" s="18"/>
       <c r="S323" s="40"/>
-    </row>
-    <row r="324" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T323" s="49"/>
+    </row>
+    <row r="324" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="18"/>
       <c r="B324" s="19" t="s">
         <v>198</v>
@@ -22408,8 +22716,9 @@
       <c r="Q324" s="18"/>
       <c r="R324" s="18"/>
       <c r="S324" s="40"/>
-    </row>
-    <row r="325" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T324" s="49"/>
+    </row>
+    <row r="325" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="18">
         <v>128</v>
       </c>
@@ -22453,8 +22762,9 @@
       <c r="S325" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T325" s="49"/>
+    </row>
+    <row r="326" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="18">
         <v>37</v>
       </c>
@@ -22498,8 +22808,9 @@
       <c r="S326" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T326" s="49"/>
+    </row>
+    <row r="327" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="18">
         <v>34</v>
       </c>
@@ -22543,8 +22854,9 @@
       <c r="S327" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T327" s="49"/>
+    </row>
+    <row r="328" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="18">
         <v>38</v>
       </c>
@@ -22588,8 +22900,9 @@
       <c r="S328" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T328" s="49"/>
+    </row>
+    <row r="329" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="18">
         <v>36</v>
       </c>
@@ -22633,8 +22946,9 @@
       <c r="S329" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T329" s="49"/>
+    </row>
+    <row r="330" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="18">
         <v>35</v>
       </c>
@@ -22678,8 +22992,9 @@
       <c r="S330" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T330" s="49"/>
+    </row>
+    <row r="331" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="18"/>
       <c r="B331" s="19" t="s">
         <v>205</v>
@@ -22715,8 +23030,9 @@
       <c r="Q331" s="18"/>
       <c r="R331" s="18"/>
       <c r="S331" s="40"/>
-    </row>
-    <row r="332" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T331" s="49"/>
+    </row>
+    <row r="332" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B332" s="19" t="s">
         <v>206</v>
       </c>
@@ -22748,8 +23064,9 @@
       <c r="P332" s="16" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="333" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T332" s="49"/>
+    </row>
+    <row r="333" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="87">
         <v>128</v>
       </c>
@@ -22797,8 +23114,9 @@
       <c r="S333" s="47">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T333" s="49"/>
+    </row>
+    <row r="334" spans="1:20" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="88"/>
       <c r="B334" s="19" t="s">
         <v>205</v>
@@ -22835,8 +23153,9 @@
       <c r="P334" s="16" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="335" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T334" s="49"/>
+    </row>
+    <row r="335" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="87">
         <v>130</v>
       </c>
@@ -22881,8 +23200,9 @@
       <c r="R335" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="336" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T335" s="49"/>
+    </row>
+    <row r="336" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="21">
         <v>152</v>
       </c>
@@ -22930,8 +23250,9 @@
       <c r="S336" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T336" s="49"/>
+    </row>
+    <row r="337" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="21">
         <v>35</v>
       </c>
@@ -22977,8 +23298,9 @@
       <c r="S337" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T337" s="49"/>
+    </row>
+    <row r="338" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B338" s="16" t="s">
         <v>1302</v>
       </c>
@@ -23021,8 +23343,9 @@
       <c r="S338" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T338" s="49"/>
+    </row>
+    <row r="339" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B339" s="19" t="s">
         <v>208</v>
       </c>
@@ -23065,8 +23388,9 @@
       <c r="S339" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T339" s="49"/>
+    </row>
+    <row r="340" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="87">
         <v>131</v>
       </c>
@@ -23109,8 +23433,9 @@
       <c r="R340" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="341" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T340" s="49"/>
+    </row>
+    <row r="341" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="87">
         <v>132</v>
       </c>
@@ -23153,8 +23478,9 @@
       <c r="R341" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="342" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T341" s="49"/>
+    </row>
+    <row r="342" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="87">
         <v>133</v>
       </c>
@@ -23197,8 +23523,9 @@
       <c r="R342" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="343" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T342" s="49"/>
+    </row>
+    <row r="343" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B343" s="19" t="s">
         <v>212</v>
       </c>
@@ -23241,8 +23568,9 @@
       <c r="S343" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T343" s="49"/>
+    </row>
+    <row r="344" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="87">
         <v>134</v>
       </c>
@@ -23285,8 +23613,9 @@
       <c r="R344" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="345" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T344" s="49"/>
+    </row>
+    <row r="345" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="87">
         <v>135</v>
       </c>
@@ -23329,8 +23658,9 @@
       <c r="R345" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="346" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T345" s="49"/>
+    </row>
+    <row r="346" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="87">
         <v>136</v>
       </c>
@@ -23373,8 +23703,9 @@
       <c r="R346" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="347" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T346" s="49"/>
+    </row>
+    <row r="347" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="21">
         <v>71</v>
       </c>
@@ -23418,8 +23749,9 @@
       <c r="S347" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T347" s="49"/>
+    </row>
+    <row r="348" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="21">
         <v>77</v>
       </c>
@@ -23463,8 +23795,9 @@
       <c r="S348" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T348" s="49"/>
+    </row>
+    <row r="349" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="21">
         <v>68</v>
       </c>
@@ -23508,8 +23841,9 @@
       <c r="S349" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T349" s="49"/>
+    </row>
+    <row r="350" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="21">
         <v>75</v>
       </c>
@@ -23553,8 +23887,9 @@
       <c r="S350" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T350" s="49"/>
+    </row>
+    <row r="351" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="21">
         <v>74</v>
       </c>
@@ -23598,8 +23933,9 @@
       <c r="S351" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T351" s="49"/>
+    </row>
+    <row r="352" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="21">
         <v>72</v>
       </c>
@@ -23643,8 +23979,9 @@
       <c r="S352" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T352" s="49"/>
+    </row>
+    <row r="353" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="21">
         <v>70</v>
       </c>
@@ -23688,8 +24025,9 @@
       <c r="S353" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T353" s="49"/>
+    </row>
+    <row r="354" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="21">
         <v>76</v>
       </c>
@@ -23733,8 +24071,9 @@
       <c r="S354" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T354" s="49"/>
+    </row>
+    <row r="355" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="21">
         <v>73</v>
       </c>
@@ -23778,8 +24117,9 @@
       <c r="S355" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T355" s="49"/>
+    </row>
+    <row r="356" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="21">
         <v>69</v>
       </c>
@@ -23823,8 +24163,9 @@
       <c r="S356" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T356" s="49"/>
+    </row>
+    <row r="357" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B357" s="19" t="s">
         <v>1303</v>
       </c>
@@ -23856,8 +24197,9 @@
       <c r="P357" s="16" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="358" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T357" s="49"/>
+    </row>
+    <row r="358" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B358" s="19" t="s">
         <v>1304</v>
       </c>
@@ -23889,8 +24231,9 @@
       <c r="P358" s="16" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="359" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T358" s="49"/>
+    </row>
+    <row r="359" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B359" s="19" t="s">
         <v>1305</v>
       </c>
@@ -23922,8 +24265,9 @@
       <c r="P359" s="16" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="360" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T359" s="49"/>
+    </row>
+    <row r="360" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B360" s="19" t="s">
         <v>1306</v>
       </c>
@@ -23955,8 +24299,9 @@
       <c r="P360" s="16" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="361" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T360" s="49"/>
+    </row>
+    <row r="361" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B361" s="19" t="s">
         <v>1307</v>
       </c>
@@ -23988,8 +24333,9 @@
       <c r="P361" s="16" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="362" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T361" s="49"/>
+    </row>
+    <row r="362" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B362" s="19" t="s">
         <v>1308</v>
       </c>
@@ -24021,8 +24367,9 @@
       <c r="P362" s="16" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="363" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T362" s="49"/>
+    </row>
+    <row r="363" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B363" s="19" t="s">
         <v>1309</v>
       </c>
@@ -24054,8 +24401,9 @@
       <c r="P363" s="16" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="364" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T363" s="49"/>
+    </row>
+    <row r="364" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B364" s="19" t="s">
         <v>1310</v>
       </c>
@@ -24087,8 +24435,9 @@
       <c r="P364" s="16" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="365" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T364" s="49"/>
+    </row>
+    <row r="365" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B365" s="19" t="s">
         <v>1311</v>
       </c>
@@ -24120,8 +24469,9 @@
       <c r="P365" s="16" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="366" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T365" s="49"/>
+    </row>
+    <row r="366" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B366" s="19" t="s">
         <v>1312</v>
       </c>
@@ -24153,8 +24503,9 @@
       <c r="P366" s="16" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="367" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T366" s="49"/>
+    </row>
+    <row r="367" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="21">
         <v>197</v>
       </c>
@@ -24202,8 +24553,9 @@
       <c r="S367" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T367" s="49"/>
+    </row>
+    <row r="368" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="21">
         <v>198</v>
       </c>
@@ -24251,8 +24603,9 @@
       <c r="S368" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T368" s="49"/>
+    </row>
+    <row r="369" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="21">
         <v>199</v>
       </c>
@@ -24300,8 +24653,9 @@
       <c r="S369" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T369" s="49"/>
+    </row>
+    <row r="370" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="87">
         <v>137</v>
       </c>
@@ -24346,8 +24700,9 @@
       <c r="R370" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="371" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T370" s="49"/>
+    </row>
+    <row r="371" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="87">
         <v>138</v>
       </c>
@@ -24392,8 +24747,9 @@
       <c r="R371" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="372" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T371" s="49"/>
+    </row>
+    <row r="372" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="87">
         <v>139</v>
       </c>
@@ -24438,8 +24794,9 @@
       <c r="R372" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="373" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T372" s="49"/>
+    </row>
+    <row r="373" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="87">
         <v>140</v>
       </c>
@@ -24484,8 +24841,9 @@
       <c r="R373" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="374" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T373" s="49"/>
+    </row>
+    <row r="374" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="87">
         <v>141</v>
       </c>
@@ -24530,8 +24888,9 @@
       <c r="R374" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="375" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T374" s="49"/>
+    </row>
+    <row r="375" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="87">
         <v>142</v>
       </c>
@@ -24576,8 +24935,9 @@
       <c r="R375" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="376" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T375" s="49"/>
+    </row>
+    <row r="376" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="87">
         <v>143</v>
       </c>
@@ -24622,8 +24982,9 @@
       <c r="R376" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="377" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T376" s="49"/>
+    </row>
+    <row r="377" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="87">
         <v>144</v>
       </c>
@@ -24668,8 +25029,9 @@
       <c r="R377" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="378" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T377" s="49"/>
+    </row>
+    <row r="378" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="87">
         <v>145</v>
       </c>
@@ -24714,8 +25076,9 @@
       <c r="R378" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="379" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T378" s="49"/>
+    </row>
+    <row r="379" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="87">
         <v>146</v>
       </c>
@@ -24760,8 +25123,9 @@
       <c r="R379" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="380" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T379" s="49"/>
+    </row>
+    <row r="380" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="87">
         <v>147</v>
       </c>
@@ -24806,8 +25170,9 @@
       <c r="R380" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="381" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T380" s="49"/>
+    </row>
+    <row r="381" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="87">
         <v>148</v>
       </c>
@@ -24852,8 +25217,9 @@
       <c r="R381" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="382" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T381" s="49"/>
+    </row>
+    <row r="382" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="87">
         <v>149</v>
       </c>
@@ -24898,8 +25264,9 @@
       <c r="R382" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="383" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T382" s="49"/>
+    </row>
+    <row r="383" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="87">
         <v>150</v>
       </c>
@@ -24944,8 +25311,9 @@
       <c r="R383" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="384" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T383" s="49"/>
+    </row>
+    <row r="384" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="87">
         <v>151</v>
       </c>
@@ -24990,8 +25358,9 @@
       <c r="R384" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="385" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T384" s="49"/>
+    </row>
+    <row r="385" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="87">
         <v>152</v>
       </c>
@@ -25036,8 +25405,9 @@
       <c r="R385" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="386" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T385" s="49"/>
+    </row>
+    <row r="386" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="87">
         <v>153</v>
       </c>
@@ -25082,8 +25452,9 @@
       <c r="R386" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="387" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T386" s="49"/>
+    </row>
+    <row r="387" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="87">
         <v>154</v>
       </c>
@@ -25128,8 +25499,9 @@
       <c r="R387" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="388" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T387" s="49"/>
+    </row>
+    <row r="388" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="87">
         <v>155</v>
       </c>
@@ -25174,8 +25546,9 @@
       <c r="R388" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="389" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T388" s="49"/>
+    </row>
+    <row r="389" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="87">
         <v>156</v>
       </c>
@@ -25220,8 +25593,9 @@
       <c r="R389" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="390" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T389" s="49"/>
+    </row>
+    <row r="390" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="87">
         <v>157</v>
       </c>
@@ -25266,8 +25640,9 @@
       <c r="R390" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="391" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T390" s="49"/>
+    </row>
+    <row r="391" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="21">
         <v>188</v>
       </c>
@@ -25315,8 +25690,9 @@
       <c r="S391" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T391" s="49"/>
+    </row>
+    <row r="392" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="21">
         <v>196</v>
       </c>
@@ -25364,8 +25740,9 @@
       <c r="S392" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T392" s="49"/>
+    </row>
+    <row r="393" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="87">
         <v>158</v>
       </c>
@@ -25406,8 +25783,9 @@
       <c r="R393" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="394" spans="1:19" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T393" s="49"/>
+    </row>
+    <row r="394" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="18"/>
       <c r="B394" s="19" t="s">
         <v>392</v>
@@ -25443,8 +25821,9 @@
       <c r="Q394" s="21"/>
       <c r="R394" s="21"/>
       <c r="S394" s="21"/>
-    </row>
-    <row r="395" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T394" s="49"/>
+    </row>
+    <row r="395" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="87">
         <v>159</v>
       </c>
@@ -25487,8 +25866,9 @@
       <c r="R395" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="396" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T395" s="49"/>
+    </row>
+    <row r="396" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="87">
         <v>160</v>
       </c>
@@ -25531,8 +25911,9 @@
       <c r="R396" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="397" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T396" s="49"/>
+    </row>
+    <row r="397" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="87">
         <v>161</v>
       </c>
@@ -25575,8 +25956,9 @@
       <c r="R397" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="398" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T397" s="49"/>
+    </row>
+    <row r="398" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="87">
         <v>162</v>
       </c>
@@ -25619,8 +26001,9 @@
       <c r="R398" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="399" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T398" s="49"/>
+    </row>
+    <row r="399" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="87">
         <v>163</v>
       </c>
@@ -25663,8 +26046,9 @@
       <c r="R399" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="400" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T399" s="49"/>
+    </row>
+    <row r="400" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="87">
         <v>164</v>
       </c>
@@ -25707,8 +26091,9 @@
       <c r="R400" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="401" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T400" s="49"/>
+    </row>
+    <row r="401" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="87">
         <v>165</v>
       </c>
@@ -25751,8 +26136,9 @@
       <c r="R401" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="402" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T401" s="49"/>
+    </row>
+    <row r="402" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="21">
         <v>268</v>
       </c>
@@ -25800,8 +26186,9 @@
       <c r="S402" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T402" s="49"/>
+    </row>
+    <row r="403" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="87">
         <v>166</v>
       </c>
@@ -25844,8 +26231,9 @@
       <c r="R403" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="404" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T403" s="49"/>
+    </row>
+    <row r="404" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="87">
         <v>167</v>
       </c>
@@ -25888,8 +26276,9 @@
       <c r="R404" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="405" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T404" s="49"/>
+    </row>
+    <row r="405" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="87">
         <v>168</v>
       </c>
@@ -25932,8 +26321,9 @@
       <c r="R405" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="406" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T405" s="49"/>
+    </row>
+    <row r="406" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="87">
         <v>169</v>
       </c>
@@ -25976,8 +26366,9 @@
       <c r="R406" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="407" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T406" s="49"/>
+    </row>
+    <row r="407" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B407" s="19" t="s">
         <v>1317</v>
       </c>
@@ -26013,8 +26404,9 @@
       <c r="P407" s="16" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="408" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T407" s="49"/>
+    </row>
+    <row r="408" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="87">
         <v>170</v>
       </c>
@@ -26057,8 +26449,9 @@
       <c r="R408" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="409" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T408" s="49"/>
+    </row>
+    <row r="409" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="87">
         <v>171</v>
       </c>
@@ -26101,8 +26494,9 @@
       <c r="R409" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="410" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T409" s="49"/>
+    </row>
+    <row r="410" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="21">
         <v>269</v>
       </c>
@@ -26152,8 +26546,9 @@
       <c r="S410" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T410" s="49"/>
+    </row>
+    <row r="411" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="87">
         <v>172</v>
       </c>
@@ -26196,8 +26591,9 @@
       <c r="R411" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="412" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T411" s="49"/>
+    </row>
+    <row r="412" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="87">
         <v>173</v>
       </c>
@@ -26240,8 +26636,9 @@
       <c r="R412" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="413" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T412" s="49"/>
+    </row>
+    <row r="413" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="87">
         <v>174</v>
       </c>
@@ -26284,8 +26681,9 @@
       <c r="R413" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="414" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T413" s="49"/>
+    </row>
+    <row r="414" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="87">
         <v>175</v>
       </c>
@@ -26328,8 +26726,9 @@
       <c r="R414" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="415" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T414" s="49"/>
+    </row>
+    <row r="415" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="87">
         <v>176</v>
       </c>
@@ -26372,8 +26771,9 @@
       <c r="R415" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="416" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T415" s="49"/>
+    </row>
+    <row r="416" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="87">
         <v>177</v>
       </c>
@@ -26414,8 +26814,9 @@
       <c r="R416" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="417" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T416" s="49"/>
+    </row>
+    <row r="417" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="18">
         <v>222</v>
       </c>
@@ -26461,8 +26862,9 @@
       <c r="S417" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T417" s="49"/>
+    </row>
+    <row r="418" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="44">
         <v>178</v>
       </c>
@@ -26507,8 +26909,9 @@
       <c r="R418" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="419" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T418" s="49"/>
+    </row>
+    <row r="419" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="18">
         <v>223</v>
       </c>
@@ -26554,8 +26957,9 @@
       <c r="S419" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T419" s="49"/>
+    </row>
+    <row r="420" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="18">
         <v>225</v>
       </c>
@@ -26603,8 +27007,9 @@
       <c r="S420" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T420" s="49"/>
+    </row>
+    <row r="421" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="44">
         <v>179</v>
       </c>
@@ -26647,8 +27052,9 @@
       <c r="R421" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="422" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T421" s="49"/>
+    </row>
+    <row r="422" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="44">
         <v>180</v>
       </c>
@@ -26693,8 +27099,9 @@
       <c r="R422" s="44" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="423" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T422" s="49"/>
+    </row>
+    <row r="423" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="18">
         <v>224</v>
       </c>
@@ -26740,8 +27147,9 @@
       <c r="S423" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T423" s="49"/>
+    </row>
+    <row r="424" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="18">
         <v>226</v>
       </c>
@@ -26789,13 +27197,14 @@
       <c r="S424" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T424" s="49"/>
+    </row>
+    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B425" s="6" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B426" s="6" t="s">
         <v>1323</v>
       </c>
